--- a/Чек-лист-приклад (UK).xlsx
+++ b/Чек-лист-приклад (UK).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git class\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8EB42DB7-485C-4F89-9BE4-51847CB655F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0518EFE-34C9-4A64-990B-8AC87E4ED953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1425" yWindow="1425" windowWidth="21600" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -661,7 +661,79 @@
     <cellStyle name="Гіперпосилання" xfId="1" builtinId="8"/>
     <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="44">
+  <dxfs count="48">
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1" shrinkToFit="0"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1" shrinkToFit="0"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF00"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1" shrinkToFit="0"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEFEFEF"/>
+          <bgColor rgb="FFEFEFEF"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="1" shrinkToFit="0"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF000000"/>
@@ -20883,22 +20955,22 @@
     <mergeCell ref="A15:D15"/>
   </mergeCells>
   <conditionalFormatting sqref="B1:D1 B3:D4 F3:F5 B26:D1000 B17:D24 B5">
-    <cfRule type="containsText" dxfId="43" priority="1" operator="containsText" text="not run">
+    <cfRule type="containsText" dxfId="47" priority="1" operator="containsText" text="not run">
       <formula>NOT(ISERROR(SEARCH(("not run"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:D1 B3:D4 F3:F5 B26:D1000 B17:D24 B5">
-    <cfRule type="containsText" dxfId="42" priority="2" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="46" priority="2" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH(("Passed"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:D1 B3:D4 F3:F5 B26:D1000 B17:D24 B5">
-    <cfRule type="containsText" dxfId="41" priority="3" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="45" priority="3" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH(("Failed"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:D1 B3:D4 F3:F5 B26:D1000 B17:D24 B5">
-    <cfRule type="containsText" dxfId="40" priority="4" operator="containsText" text="Skipped">
+    <cfRule type="containsText" dxfId="44" priority="4" operator="containsText" text="Skipped">
       <formula>NOT(ISERROR(SEARCH(("Skipped"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20915,7 +20987,7 @@
   <dimension ref="A1:R23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -20992,8 +21064,8 @@
       <c r="C3" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>11</v>
+      <c r="D3" s="35" t="s">
+        <v>10</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>11</v>
@@ -21286,63 +21358,83 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:E1 G3:G5 C17:E23">
-    <cfRule type="containsText" dxfId="39" priority="9" operator="containsText" text="not run">
+    <cfRule type="containsText" dxfId="43" priority="13" operator="containsText" text="not run">
       <formula>NOT(ISERROR(SEARCH(("not run"),(C1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:E1 G3:G5 C17:E23">
-    <cfRule type="containsText" dxfId="38" priority="10" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="42" priority="14" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH(("Passed"),(C1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:E1 G3:G5 C17:E23">
-    <cfRule type="containsText" dxfId="37" priority="11" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="41" priority="15" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH(("Failed"),(C1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:E1 G3:G5 C17:E23">
-    <cfRule type="containsText" dxfId="36" priority="12" operator="containsText" text="Skipped">
+    <cfRule type="containsText" dxfId="40" priority="16" operator="containsText" text="Skipped">
       <formula>NOT(ISERROR(SEARCH(("Skipped"),(C1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="containsText" dxfId="35" priority="5" operator="containsText" text="not run">
+    <cfRule type="containsText" dxfId="39" priority="9" operator="containsText" text="not run">
       <formula>NOT(ISERROR(SEARCH(("not run"),(C2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="containsText" dxfId="34" priority="6" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="38" priority="10" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH(("Passed"),(C2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="containsText" dxfId="33" priority="7" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="37" priority="11" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH(("Failed"),(C2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="containsText" dxfId="32" priority="8" operator="containsText" text="Skipped">
+    <cfRule type="containsText" dxfId="36" priority="12" operator="containsText" text="Skipped">
       <formula>NOT(ISERROR(SEARCH(("Skipped"),(C2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="containsText" dxfId="31" priority="1" operator="containsText" text="not run">
+    <cfRule type="containsText" dxfId="35" priority="5" operator="containsText" text="not run">
       <formula>NOT(ISERROR(SEARCH(("not run"),(C3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="containsText" dxfId="30" priority="2" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="34" priority="6" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH(("Passed"),(C3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="containsText" dxfId="29" priority="3" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="33" priority="7" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH(("Failed"),(C3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="containsText" dxfId="28" priority="4" operator="containsText" text="Skipped">
+    <cfRule type="containsText" dxfId="32" priority="8" operator="containsText" text="Skipped">
       <formula>NOT(ISERROR(SEARCH(("Skipped"),(C3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="not run">
+      <formula>NOT(ISERROR(SEARCH(("not run"),(D3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Passed">
+      <formula>NOT(ISERROR(SEARCH(("Passed"),(D3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="Failed">
+      <formula>NOT(ISERROR(SEARCH(("Failed"),(D3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3">
+    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="Skipped">
+      <formula>NOT(ISERROR(SEARCH(("Skipped"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -41570,62 +41662,62 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:D1 G3:G5 C3 F1:H1">
-    <cfRule type="containsText" dxfId="27" priority="1" operator="containsText" text="not run">
+    <cfRule type="containsText" dxfId="31" priority="1" operator="containsText" text="not run">
       <formula>NOT(ISERROR(SEARCH(("not run"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36:H36 B37:H37 B27:H35 E7:H26">
-    <cfRule type="containsText" dxfId="26" priority="2" operator="containsText" text="not run">
+    <cfRule type="containsText" dxfId="30" priority="2" operator="containsText" text="not run">
       <formula>NOT(ISERROR(SEARCH(("not run"),(B7))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:D1 G3:G5 C3 F1:H1">
-    <cfRule type="containsText" dxfId="25" priority="3" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="29" priority="3" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH(("Passed"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36:H36 B37:H37 B27:H35 E7:H26">
-    <cfRule type="containsText" dxfId="24" priority="4" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="28" priority="4" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH(("Passed"),(B7))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:D1 G3:G5 C3 F1:H1">
-    <cfRule type="containsText" dxfId="23" priority="5" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="27" priority="5" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH(("Failed"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36:H36 B37:H37 B27:H35 E7:H26">
-    <cfRule type="containsText" dxfId="22" priority="6" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="26" priority="6" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH(("Failed"),(B7))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:D1 G3:G5 C3 F1:H1">
-    <cfRule type="containsText" dxfId="21" priority="7" operator="containsText" text="Skipped">
+    <cfRule type="containsText" dxfId="25" priority="7" operator="containsText" text="Skipped">
       <formula>NOT(ISERROR(SEARCH(("Skipped"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36:H36 B37:H37 B27:H35 E7:H26">
-    <cfRule type="containsText" dxfId="20" priority="8" operator="containsText" text="Skipped">
+    <cfRule type="containsText" dxfId="24" priority="8" operator="containsText" text="Skipped">
       <formula>NOT(ISERROR(SEARCH(("Skipped"),(B7))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G5">
-    <cfRule type="containsText" dxfId="19" priority="9" operator="containsText" text="not run">
+    <cfRule type="containsText" dxfId="23" priority="9" operator="containsText" text="not run">
       <formula>NOT(ISERROR(SEARCH(("not run"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G5">
-    <cfRule type="containsText" dxfId="18" priority="10" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="22" priority="10" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH(("Passed"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G5">
-    <cfRule type="containsText" dxfId="17" priority="11" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="21" priority="11" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH(("Failed"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G5">
-    <cfRule type="containsText" dxfId="16" priority="12" operator="containsText" text="Skipped">
+    <cfRule type="containsText" dxfId="20" priority="12" operator="containsText" text="Skipped">
       <formula>NOT(ISERROR(SEARCH(("Skipped"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -59754,42 +59846,42 @@
     <mergeCell ref="E4:E5"/>
   </mergeCells>
   <conditionalFormatting sqref="B1:B3 C2:D5 E1:F3 G1:J1000 B5:B7 F8:F1000 B20:B28 B30:B1000 D30:D1000 C49:C1000 C7:D28 D6 D1 E6:E1000 E4">
-    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="not run">
+    <cfRule type="containsText" dxfId="19" priority="1" operator="containsText" text="not run">
       <formula>NOT(ISERROR(SEARCH(("not run"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B3 C2:D5 E1:F3 G1:J1000 B5:B7 F8:F1000 B20:B28 B30:B1000 D30:D1000 C49:C1000 C7:D28 D6 D1 E6:E1000 E4">
-    <cfRule type="containsText" dxfId="14" priority="2" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="18" priority="2" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH(("Passed"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B3 C2:D5 E1:F3 G1:J1000 B5:B7 F8:F1000 B20:B28 B30:B1000 D30:D1000 C49:C1000 C7:D28 D6 D1 E6:E1000 E4">
-    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="17" priority="3" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH(("Failed"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B3 C2:D5 E1:F3 G1:J1000 B5:B7 F8:F1000 B20:B28 B30:B1000 D30:D1000 C49:C1000 C7:D28 D6 D1 E6:E1000 E4">
-    <cfRule type="containsText" dxfId="12" priority="4" operator="containsText" text="Skipped">
+    <cfRule type="containsText" dxfId="16" priority="4" operator="containsText" text="Skipped">
       <formula>NOT(ISERROR(SEARCH(("Skipped"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A3">
-    <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="not run">
+    <cfRule type="containsText" dxfId="15" priority="5" operator="containsText" text="not run">
       <formula>NOT(ISERROR(SEARCH(("not run"),(A2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A3">
-    <cfRule type="containsText" dxfId="10" priority="6" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="14" priority="6" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH(("Passed"),(A2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A3">
-    <cfRule type="containsText" dxfId="9" priority="7" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="13" priority="7" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH(("Failed"),(A2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A3">
-    <cfRule type="containsText" dxfId="8" priority="8" operator="containsText" text="Skipped">
+    <cfRule type="containsText" dxfId="12" priority="8" operator="containsText" text="Skipped">
       <formula>NOT(ISERROR(SEARCH(("Skipped"),(A2))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -60119,42 +60211,42 @@
     <mergeCell ref="F3:F4"/>
   </mergeCells>
   <conditionalFormatting sqref="B1:B2 E1:F2 B4:B6 D5 D1 E3 C2:D4 F7:F19 C6:D19 E5:E19 B34:F37">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="not run">
+    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="not run">
       <formula>NOT(ISERROR(SEARCH(("not run"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B2 E1:F2 B4:B6 D5 D1 E3 C2:D4 F7:F19 C6:D19 E5:E19 B34:F37">
-    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH(("Passed"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B2 E1:F2 B4:B6 D5 D1 E3 C2:D4 F7:F19 C6:D19 E5:E19 B34:F37">
-    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH(("Failed"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B2 E1:F2 B4:B6 D5 D1 E3 C2:D4 F7:F19 C6:D19 E5:E19 B34:F37">
-    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="Skipped">
+    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="Skipped">
       <formula>NOT(ISERROR(SEARCH(("Skipped"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="not run">
+    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="not run">
       <formula>NOT(ISERROR(SEARCH(("not run"),(A2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="containsText" dxfId="2" priority="6" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH(("Passed"),(A2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="containsText" dxfId="1" priority="7" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH(("Failed"),(A2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="containsText" dxfId="0" priority="8" operator="containsText" text="Skipped">
+    <cfRule type="containsText" dxfId="4" priority="8" operator="containsText" text="Skipped">
       <formula>NOT(ISERROR(SEARCH(("Skipped"),(A2))))</formula>
     </cfRule>
   </conditionalFormatting>
